--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 10:11:22</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 11:29:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 11:29:19</t>
+    <t>Informação extraída do SIGBM: 05/01/2023 - 11:57:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/01/2023 - 11:57:19</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:16:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:16:45</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:29:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:29:57</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:39:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:39:07</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:47:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:47:44</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:57:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:57:26</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 01:18:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 01:18:46</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 01:34:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 01:34:20</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 01:44:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 01:44:02</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 01:53:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 01:53:18</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:06:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:06:59</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:23:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:23:35</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:32:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:32:58</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:41:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:41:41</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:50:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:50:00</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:59:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:59:08</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 03:23:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 03:23:23</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 03:38:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 03:38:01</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 03:46:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 03:46:40</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 03:55:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 03:55:07</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:10:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:10:27</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:22:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:22:22</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:31:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:31:03</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:39:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:39:53</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:48:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:48:46</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:57:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:57:12</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 05:20:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 05:20:19</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 05:34:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 05:34:40</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 05:44:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 05:44:01</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 05:52:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 05:52:46</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 06:06:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 06:06:49</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 06:23:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 06:23:10</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 07:33:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 07:33:43</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 07:43:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 07:43:01</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 07:51:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 07:51:29</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:00:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:00:17</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:17:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:17:58</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:26:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:26:04</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:35:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:35:15</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:44:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:44:35</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:53:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:53:06</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 09:14:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 09:14:45</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 09:47:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 09:47:56</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 10:09:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 10:09:51</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 10:30:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 10:30:16</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 10:39:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 10:39:24</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 10:50:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 10:50:25</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 10:59:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 10:59:27</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 11:21:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 11:21:13</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 11:27:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 11:27:59</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 11:38:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 11:38:27</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 11:48:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 11:48:11</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 11:56:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 11:56:37</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:12:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:12:17</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:30:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:30:42</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:39:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:39:21</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 12:47:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 12:47:18</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 01:06:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 01:06:58</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 01:43:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 01:43:54</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 01:52:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 01:52:57</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:04:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:04:33</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:23:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:23:33</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:31:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:31:55</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:40:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:40:47</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:49:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:49:46</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 02:58:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 02:58:08</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 03:21:37</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -33352,7 +33352,7 @@
         <v>44</v>
       </c>
       <c r="O352" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P352" s="0" t="s">
         <v>46</v>
@@ -33364,7 +33364,7 @@
         <v>146</v>
       </c>
       <c r="S352" s="0" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
     </row>
     <row r="353">

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 03:21:37</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 03:34:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 03:34:36</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 03:44:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 03:44:04</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 03:53:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="4253">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:05:48</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:18:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="4253">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:18:30</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:27:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="4253">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:27:41</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:37:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="4253">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:37:40</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:45:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="4253">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:45:06</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 04:54:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="4253">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 04:54:03</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 05:10:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 05:25:58</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 05:35:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 05:35:22</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 05:44:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 05:44:48</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 05:53:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 05:53:01</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 06:06:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 06:06:40</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 06:20:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 06:20:47</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 06:29:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 06:29:28</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 06:38:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 06:38:18</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 06:47:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 06:47:26</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 06:56:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 06:56:25</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 07:13:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 07:13:24</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 07:27:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 07:27:50</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 07:36:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 07:36:41</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 07:46:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 07:46:02</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 07:54:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 07:54:11</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:10:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:10:03</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:23:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:23:23</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:33:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:33:05</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:42:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-06.xlsx
+++ b/sigbm_download_2023-01-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:42:21</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 08:50:47</t>
   </si>
   <si>
     <t>ID Barragem</t>
